--- a/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
+++ b/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2016-11-4" sheetId="1" r:id="rId1"/>
+    <sheet name="2016-11-5" sheetId="2" r:id="rId2"/>
+    <sheet name="2016-11-6" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="138">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +280,324 @@
   <si>
     <t>原因是我事先决定了10.20做运动，然后11点开始入睡，
 现在已经超标，如果再迟了，恐会影响明天的状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定换一件外套穿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为那件橘红色羽绒服袖口很脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定第二天延长冥想时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为5分钟的冥想时间太短，没有达到我想要
+的足够长的专注力训练（冥想实验前，原以为5分钟时间很漫长，实际很短，冥想才刚进入状态时间就结束）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把外套穿上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为天冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定先不学vxWorks，先整理自控力学习日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因有两点：一是2016.11.04下午我在公司和同事发生一件关于自控失败的事情，自己还未搞清楚自控失败的过程和原因；二是，在整理“一”时，我想通了该如何去思考（或者说找到了思考的角度）“与人有关的问题”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定整蛊正在睡懒觉的室友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下决定带来的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下决定的原因(或者过程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原因有两点：一是室友他说了星期六早上9.30前要到公司加班，二是自己的问题：首先是为了“报复”室友，其次是为了好玩
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么想“报复”室友？
+目前想到的原因是：与室友相处过程中产生矛盾，自己本该承担起解决这些矛盾(或问题)的责任，但自己没有，反倒是将逃避责任所导致的痛苦情绪发泄到室友身上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定叫室友早点起床，一起去上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因是掩饰自己“报复”室友后的尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定冲个热水澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为天冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定等室友洗漱时，玩手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我不能控制住自己表现出“我在思考的情绪”（学习的事），如果在寝室无法进行学习的事，那就该做生活的事，所以我选择玩手机，以避免自己与寝室环境格格不入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本来我打算到公司园区门口的红旗超市里，随便买点吃的，但室友既然提出了“吃面”这个更好的早餐提议，自己何乐而不为呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定跟着室友去吃面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定选靠路边的位置吃面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为路边的空气流通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把位置改到离店面近的一方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为怕室友不愿意去靠路边的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定去拿餐巾纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么室友很坚定地认为我会去拿？而我感觉如果我不拿，好像就是自己不对一样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为室友很坚定地要我去拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定开同事A的玩笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定暗示自己今天（星期六）是上班时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我意识到自己没有公司规定的束缚，容易偷懒（所以，我重新定义了上班时间：以打卡为准，打卡后即为上班时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定随同事的时间吃午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定吃咖喱蛋包饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本来想吃铁板烧的，但点单的人多，外加服务员反复提醒快收摊了，确认好自己点的菜还有供应，一听一看一紧张，自己就怂了，点了个同事之前吃的咖喱蛋包饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己的幺蛾子想法，好好和同事走路，
+聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我感觉自己在失控，再也不能像前两天那样和同事自然走路，交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定睡个午觉再继续上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定今天把分机CAN接收协议调完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定放松下自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为连续调试2小时，大脑感觉很疲惫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定5.30下班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为没控制住偷懒的想法，提前下了班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定和室友G骑车出去吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为他想让我帮他带饭，但我不想带，所以我提出了这个合理的提议（真实的想法是：不想帮别人带）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定在小区散步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为刚吃完饭，不想马上回去坐着，另外，散步时很安静，自己正好可以想想白天遇到的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定和老婆打个电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定先放下学习的事，查一下小儿急诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为老婆突然发短信说：娃儿发热，最后我打电话过去才知道可能是得了小儿急诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定提前把运动做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为在等娃儿情况时，自己设定好的节奏乱了，有点不知道该干嘛，所以干脆先把不费脑子的事情做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定拿一小时来整理自控力学习日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为折腾完娃儿的事情已经11点，没法按照往常时间入睡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定周日睡到8.30起床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：养成吃早餐的好习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定冲个澡，然后出去把早餐吃了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道自己为什么总想冲热水澡？（怕冷吗？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定在去吃饭的路上想想接下来要
+做的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是在去吃饭的路上，我发现自己很容易被过路的女陌生人转移注意力——想去看别人，但又怕表现出自己内心龌蹉的想法（一些淫秽不堪的想法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定在吃面时控制自己装逼的情绪，好好表现吃饭时该表现，该做的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我发现一天遇到的问题里，有一部分问题总是出在自己
+适应不同环境氛围里？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定吃面前先吃点小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因:事先我没想过要吃小吃，是突然想到昨天和
+室友吃面时，他弄了一碗小吃，感觉还不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因:在西安跟着老司机学的吃面习惯，感觉一口
+生蒜一口面还不错（实际上是有点装逼的嫌疑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定吃面时加生蒜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为不想才吃完早餐，就坐在床上搞事情，习惯不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因:原本是想去电子科大的闲逛，但我想想出来骑行可以做点有意义的事情，比如，去熟悉一下郫县社保局的位置，以后要是有人需要问郫县社保局的位置，自己可以帮上忙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定骑自行去转一圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定不让室友知道自己出去骑
+行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以当室友问我骑自行出去干什么，是去公司吗？我的回答是去修自行车。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定拒绝室友让我回犀浦请吃大盘鸡
+的提议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定骑行到郫县社保局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不喜欢被牵着鼻子走的原因？
+一是对于自己没法应对这种情况的懊恼，二是不喜欢别
+人在我面前“高人一等”（因为从小到大，在家里我就没什么地位，长大后想要更高的地位，所以也讨厌在我面前表现得“高人一等”的人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定回犀浦陪室友吃大盘鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拗不过室友的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下本条决定的背景说明：打算骑行到郫县社保局时，我已决定好独自一人去（实际上，当时我有考虑过叫上室友，但最终没有，没有的原因是我想到叫上室友后，需要照顾他的情绪，除此之外，还担心室友对骑行的目的地有什么新的提议，而我又拗不过他的强势，被牵着鼻子走。所以，没有叫室友的真实原因是自己面对这个短时间没法处理的问题时，选择了独行的方式来逃避）。
+事情经过：在去郫县社保局的路中，我没有预料到室友会突然打电话问我在哪里（潜台词：你在哪里，快回来，我们去吃大盘鸡），因为之前出发时，我已经决定好向他隐瞒自己的行踪，所以他的电话让我措手不及：逃避的选择，实际上让
+我潜意识里对室友感到愧疚。此外，周日早上选择骑行方式度过也让我觉得自己很牛逼（翻译成人话：你们都在偷懒睡觉，而我却在做正确的事——其实就是装逼）。由于我在说话前，就已经陷入前面两种情绪中，所以一开始的谈话，我就处于被动状态。但当室友反复诱导我回犀浦吃大盘鸡时，我意识到自己正在被他的话牵着鼻子走，（我不能这样被牵着鼻子走，去郫县社保局的事情我还没做，不能这么就被他决定了），我就反问他：为什么一定要在中午吃大盘鸡，我们可以晚上吃！室友被我的反问搞懵逼了，最后选择顺从我的意思。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +615,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -321,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +663,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C39" sqref="C38:C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1024,4 +1360,512 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3">
+        <v>42679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="45.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3">
+        <v>42680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="351" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
+++ b/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016-11-4" sheetId="1" r:id="rId1"/>
     <sheet name="2016-11-5" sheetId="2" r:id="rId2"/>
     <sheet name="2016-11-6" sheetId="3" r:id="rId3"/>
+    <sheet name="2016-11-7" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="171">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,9 +596,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下本条决定的背景说明：打算骑行到郫县社保局时，我已决定好独自一人去（实际上，当时我有考虑过叫上室友，但最终没有，没有的原因是我想到叫上室友后，需要照顾他的情绪，除此之外，还担心室友对骑行的目的地有什么新的提议，而我又拗不过他的强势，被牵着鼻子走。所以，没有叫室友的真实原因是自己面对这个短时间没法处理的问题时，选择了独行的方式来逃避）。
-事情经过：在去郫县社保局的路中，我没有预料到室友会突然打电话问我在哪里（潜台词：你在哪里，快回来，我们去吃大盘鸡），因为之前出发时，我已经决定好向他隐瞒自己的行踪，所以他的电话让我措手不及：逃避的选择，实际上让
-我潜意识里对室友感到愧疚。此外，周日早上选择骑行方式度过也让我觉得自己很牛逼（翻译成人话：你们都在偷懒睡觉，而我却在做正确的事——其实就是装逼）。由于我在说话前，就已经陷入前面两种情绪中，所以一开始的谈话，我就处于被动状态。但当室友反复诱导我回犀浦吃大盘鸡时，我意识到自己正在被他的话牵着鼻子走，（我不能这样被牵着鼻子走，去郫县社保局的事情我还没做，不能这么就被他决定了），我就反问他：为什么一定要在中午吃大盘鸡，我们可以晚上吃！室友被我的反问搞懵逼了，最后选择顺从我的意思。</t>
+    <t>我决定把2016-11-5的决定记录补上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定睡个午觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：保证每天睡眠7小时左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定坚持把2016-11-5记录决定写完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为当时有点困顿，加上写累了想休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定带室友去纺专吃晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定找一本关于逻辑思维应用方面的
+书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定冥想10分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不要早点起床吃面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定还是按照平时的时间起床，不装逼早起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定思考一下该怎么走路的时候和室友聊些什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定跟着室友吃早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下本条决定的背景说明：打算骑行到郫县社保局时，我已决定好独自一人去（实际上，当时我有考虑过叫上室友，但最终没有，没有的原因是我想到叫上室友后，需要照顾他的情绪，除此之外，我还担心室友对骑行的目的地有什么新的提议，而我又拗不过他的强势，被牵着鼻子走。所以，没有叫室友的真实原因是自己无法应对室友的强势，所以选择了独行的方式来逃避）。
+事情经过：在去郫县社保局的路中，我没有预料到室友会突然打电话问我在哪里（潜台词：你在哪里，快回来，我们去吃大盘鸡），因为之前出发时，我已经决定好向他隐瞒自己的行踪，所以他的电话让我措手不及（逃避的选择，实际上让
+我潜意识里对室友感到愧疚）。此外，周日早上选择骑行方式度过也让我觉得自己很牛逼（翻译成人话：你们都在偷懒睡觉，而我却在做正确的事——其实就是装逼）。心中有愧，所以我在说话前，就已经处于被动状态。但当室友反复诱导我回犀浦吃大盘鸡时，我意识到自己正在被他的话牵着鼻子走，（我不能这样被牵着鼻子走，去郫县社保局的事情我还没做，不能这么就被他决定了），我就反问他：为什么一定要在中午吃大盘鸡，我们可以晚上吃！室友被我的反问搞懵逼了，最后选择顺从我的意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定用隐晦的话来试探室友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：同事B给室友打电话，让他帮忙请个病假。病假的理由很拙，我第一反应是同事A不想上班，但自己又不想在室友面前表现出我对同事A的真实看法，所以用话先试探室友的意思，再决定自己要怎么评判这件事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己装逼的情绪，让自己融入到工作环境中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己装逼的情绪，让自己融入到寝室生活中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己怂逼的想法，和老大一起去纺专食堂吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：老大邀请我一起去纺专食堂吃饭，我的第一反应是自己没法应对和老大独处聊什么的问题，所以想要说不去纺专吃饭，来逃避这个问题。明白了自己正在失去自控力，自然就下决心不屈服于“逃兵”这个自我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定想想工作有关的事情，然后和老大聊工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定午休再多睡会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我发现旁边的同事还在休息，没起
+来上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么有大家的参与时，偷懒让自己觉得没那么愧疚？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定先放下工作的事情，查一查关于婴幼儿细菌感染的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我发现自己不知道解决孩子细菌感染这件事（婴幼儿细菌感染是重病），但我知道这件事很重要，所以告诉自己孩子的事更重要，上班时间一样处理自己的私事，不要迂腐于每天的设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约定好的生活节奏，没法应对突发
+情况？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定还是让自己静下来，先把工作的事情做完，再去想孩子细菌感染的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：一是网络不好，自己没法了解婴幼儿细菌感染的问题，二是自己刚好遇到一个工作上没有理清楚的问题，而自己又在尝试控制自己去考虑孩子细菌感染后续的问题，导致大脑一片混乱，为了解决混乱的大脑，我决定先把相对简单的工作问题解决，然后再集中精力去考虑孩子细菌感染的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定向XL解释刚刚自己激动的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想通过XL了解孩子病菌感染的情况，但我明白，自己不能把自己解决不了孩子细菌感染的烦躁情绪压到XL身上，所以我控制了自己的烦躁情绪，但最后还是和XL发生了摩擦。事后我本来觉得自己没有做错，对XL的反应很是气愤，但XL的反应让我觉得很奇怪，明明我已经控制了自己的烦躁情绪，怎么还是让XL不高兴了？我仔细想了一下，发现原来自己除了上一种情绪外，还带着一种觉得“病很严重”的情绪，我就是施加了“病很严重”的情绪到XL身上，所以XL才觉得不高兴。事实上，XL在孩子身边，目睹孩子生病和医治的痛苦，她的压力可想而知是很大的，所以，我更不该给她施加压力，而应该替她分担！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定放室友的狗出去大小便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实上，刚开始我是不想放，不想放的
+原因是怕狗不听我的话跑丢了，自己没
+法向室友交代。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己偷懒的情绪，把昨天和今天的记录决定完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定看半小时自控力再睡觉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1709,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1773,7 +1911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1839,7 +1977,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="351" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1847,7 +1985,7 @@
         <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>134</v>
@@ -1862,10 +2000,276 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3">
+        <v>42680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
+++ b/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2016-11-4" sheetId="1" r:id="rId1"/>
     <sheet name="2016-11-5" sheetId="2" r:id="rId2"/>
     <sheet name="2016-11-6" sheetId="3" r:id="rId3"/>
     <sheet name="2016-11-7" sheetId="4" r:id="rId4"/>
+    <sheet name="2016-11-8" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,25 +718,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我想通过XL了解孩子病菌感染的情况，但我明白，自己不能把自己解决不了孩子细菌感染的烦躁情绪压到XL身上，所以我控制了自己的烦躁情绪，但最后还是和XL发生了摩擦。事后我本来觉得自己没有做错，对XL的反应很是气愤，但XL的反应让我觉得很奇怪，明明我已经控制了自己的烦躁情绪，怎么还是让XL不高兴了？我仔细想了一下，发现原来自己除了上一种情绪外，还带着一种觉得“病很严重”的情绪，我就是施加了“病很严重”的情绪到XL身上，所以XL才觉得不高兴。事实上，XL在孩子身边，目睹孩子生病和医治的痛苦，她的压力可想而知是很大的，所以，我更不该给她施加压力，而应该替她分担！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我决定放室友的狗出去大小便</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事实上，刚开始我是不想放，不想放的
-原因是怕狗不听我的话跑丢了，自己没
-法向室友交代。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我决定控制自己偷懒的情绪，把昨天和今天的记录决定完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我决定看半小时自控力再睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：冥想需要全身放松，集中注意力观察自己的呼吸，身体的状态处于类似休息，而刚起床时人还没有从睡眠的过程中完全清醒过来，很容易再次入眠，尤其是在放松的状态下（比如冥想状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定先学习，再冥想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定先收集有关细菌感染的
+问题资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己暂时不去想孩子生病的事，静下心来学习vxWorks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定提前10分钟起床洗澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定以后都提前起床，逐步让室友适应自己的节奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把昨晚上自己预先设定的入睡时间与陪孩子生病输液冲突的纠结想清楚原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿子生病，我想搞清楚病情的目的是为了自己的安心，还是真的关心儿子？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想通过XL了解孩子病菌感染的情况，但我明白，自己不能把自己解决不了孩子细菌感染的烦躁情绪压到XL身上，所以我控制了自己的烦躁情绪，结果最后还是和XL发生了摩擦。事后我本来觉得自己没有做错，对XL的反应很是气愤，但XL的反应让我觉得很奇怪，明明我已经控制了自己的烦躁情绪，怎么还是让XL不高兴了？我仔细想了一下，发现原来自己除了上一种情绪外，还带着一种觉得“病很严重”的情绪，我就是施加了“病很严重”的情绪到XL身上，所以XL才觉得不高兴。事实上，XL在孩子身边，目睹孩子生病和医治的痛苦，她的压力可想而知是很大的，所以，我更不该给她施加压力，而应该替她分担！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实上，刚开始我是不想放，不想放的原因是怕狗不听我的话跑丢了，自己没法向室友交代。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把想问的话憋回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：没有勇气。早餐时买了一笼肉饺子，但老板说肉饺子不
+够，给我补了3个香菇，本来自己想问一问补了香菇，一笼饺子钱还是一样，但最后没说出口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把工作前1小时拿来学习
+C基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定为了功能而改变分机CAN
+上报数据的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了功能而代码，导致代码框架混乱？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定强迫自己单独跟着同事走回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我感觉到自己为了逃避不知道和同事聊什么的问题，想怂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定克制自己继续睡午觉的
+冲动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定暗示自己集中注意力想
+工作上的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我感觉近两天自己的自控力有所下降，工作期间（或者其
+他时候）的状态有所低落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己毛躁的情绪，冷静下来把工作问题理清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定在时间很迟的情况下，也坚持去园区走一圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把饭带到3楼工位上吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么我带到3楼工位后，内心隐约觉得自己这样做不好？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定跟着大家一起下班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定顺着同事的意思，在小区大门下车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定学习和运动时，不再关门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：让室友逐步适应自己的节奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把每日时间安排表补上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1504,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1849,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2058,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2067,7 +2181,7 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="51.625" customWidth="1"/>
     <col min="5" max="5" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2076,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="3">
-        <v>42680</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2149,7 +2263,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2169,7 +2283,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2204,7 +2318,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2218,7 +2332,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2229,7 +2343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2237,18 +2351,18 @@
         <v>165</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -2256,7 +2370,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -2264,7 +2378,232 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="52.125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3">
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>170</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
+++ b/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2016-11-4" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="2016-11-6" sheetId="3" r:id="rId3"/>
     <sheet name="2016-11-7" sheetId="4" r:id="rId4"/>
     <sheet name="2016-11-8" sheetId="5" r:id="rId5"/>
+    <sheet name="2016-11-9" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="206">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,6 +851,38 @@
   </si>
   <si>
     <t>我决定把每日时间安排表补上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定穿上深灰色的卫衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定不穿上保暖裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿上卫衣外套就够了，不需要再加上保暖裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定复习前几天vxWorks学习时自己定义的框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：1、最近两天，（从“我不要”）的角度上看，自己自控是没有多大问题的，但事实上自己能感觉到自控力明显不如刚开始学习自控力的那几天，原因也没有想通（今天看《自控力》第二章 意志力本能 意志力本能：三思而后行时，才明白自己的状态不是失控在我不要上，而是失控在我应该做，然而自己却选择什么也不做上。）没有想通从生理上导致大脑处于混乱状态（大脑中的特殊化学反应，如控制身体血液中的糖分降低，糖分降低可以导致大脑混乱），从心理上自控系统失去大脑的控制，其他负面自我掌控大脑。大脑的糟糕状态让学习时注意力容易分散（如，容易被周围事物干扰），混乱则会让思考无法顺利进行。2、开始学习vxWorks时自己定义的操作系统框架混乱，不清晰，导致今天新学习的任务创建接口不知道该归属在vxWorks系统框架中的那一部分才合理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己不去看时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝我想放弃的想法的诱惑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,7 +1263,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1618,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2392,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2611,4 +2644,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="52.125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3">
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
+++ b/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2016-11-4" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="2016-11-7" sheetId="4" r:id="rId4"/>
     <sheet name="2016-11-8" sheetId="5" r:id="rId5"/>
     <sheet name="2016-11-9" sheetId="8" r:id="rId6"/>
+    <sheet name="2016-11-10" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="238">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -878,11 +879,141 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我决定控制自己不去看时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拒绝我想放弃的想法的诱惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定在vxWorks学习期间控制
+自己不去看时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定忍着尴尬和同事（及他女朋友）一起吃午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定找个理由先走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为和同事，同事女朋友吃饭，实在太尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把GR6030与FPGA、LBC相关的应用功能层次想清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己尴尬的情绪，努力融入到和同事走路的氛围中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为昨天下班，跟着同事一路回去，我发现自己有点尴尬，不知道该说什么，也无法融入到同事的话题里，这与前几天自然的我不一样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己尴尬的情绪，好好和儿子视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我发现自己融入不到“爱儿子”的情绪中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么我无法融入“爱儿子”的情绪？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定和XL聊天时，把晚上的
+运动做了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定先睡觉，把决定记录放到第二天做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把保暖裤穿上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我觉得天冷更容易让我经不起被窝的诱惑，穿热和些，说不定更利于注意力的集中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定用枕头把床头的书和手机盖住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为注意力不够集中，我总是想去撇一眼手机和书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定今天把vxWorks操作系统的框架想清楚再继续往下学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定多冥想一会儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定不等室友出门直接起床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：逐步让室友适应我的起床时间和习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定控制自己装逼的情绪，集中注意力洗漱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定走快点，去吃1两清汤炖鸡面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定假装自己在做项目的事情，不想让领导看到自己在学习C基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我感觉在上班期间学习C基础不合时宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定中午就在红四方稀饭庄吃盖饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定在吃饭时间和同事聊天时，用更成熟的方式说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么样的说话方式是成熟的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定逃避项目调试中遇到的一个警告问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定学习UART vxbus驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为GR6030的MCU代码编写和测试基本完成，剩下还有些已经解决的问题（但不知道原因）都是小问题，下午还有充足的时间学习其他知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定今天不加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定在客厅写日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为感觉自己很困，想要逃离床的诱惑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,6 +1086,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2650,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2721,110 +2864,321 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
         <v>204</v>
       </c>
-      <c r="D6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>12</v>
-      </c>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>13</v>
-      </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>14</v>
-      </c>
       <c r="B16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9">
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
+++ b/Personal/xiemin/Marvin_学习_自控力_提高自控力方法_认识自我_记录决定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2016-11-4" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="2016-11-8" sheetId="5" r:id="rId5"/>
     <sheet name="2016-11-9" sheetId="8" r:id="rId6"/>
     <sheet name="2016-11-10" sheetId="10" r:id="rId7"/>
+    <sheet name="2016-11-11至2016-11-13" sheetId="11" r:id="rId8"/>
+    <sheet name="2016-11-14" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="260">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,6 +1016,95 @@
   </si>
   <si>
     <t>因为感觉自己很困，想要逃离床的诱惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定继续睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我感觉自己身体不舒服，需要多休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定8.10起来冥想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天回家照顾儿子，中间没
+有进行学习和工作内容，只有生活内容，内容明天再补，今天生病，早点睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定早餐吃香菇饺子加豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我感到自己的胃不舒服，想吃点清淡的食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定上班的路上想想儿子咳嗽的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把GR6030输入输出单元的代码删掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为客户没有确定输入输出单元组件的节点ID和连线关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我想多做替别人着想的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：节约钱，儿子住院一次，我发现以后用钱的地方还有很多，比如儿子吃法，家里的开销等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定给女同事开门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定午餐吃9块的套饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把GR6030侧向座天线控制部分的代码余下问题解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定看GR6d00的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：项目后期交给自己，自己需要搞懂软件；其次是为了学习vxWorks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定不加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为身体不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定不看车祸现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定坚持把今天的运动做完，虽然身体很不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定把上星期五和周末三天的决定记录留到明天再写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为身体状态不好，脑袋很晕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2982,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3185,4 +3276,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9">
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>